--- a/mbs-perturbation/mega/multinomialNB/nearmiss/mega-multinomialNB-nearmiss-results.xlsx
+++ b/mbs-perturbation/mega/multinomialNB/nearmiss/mega-multinomialNB-nearmiss-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.5476190476190477</v>
+        <v>0.7924528301886793</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.8633720930232558</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5151515151515151</v>
+        <v>0.860576923076923</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.8633720930232558</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9038461538461539</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9479166666666667</v>
+        <v>0.8504228329809725</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9472749472749473</v>
+        <v>0.8504957038995374</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9479166666666667</v>
+        <v>0.8504228329809725</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8095238095238095</v>
+        <v>0.9375</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7783687943262412</v>
+        <v>0.8176532769556025</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7780620758705084</v>
+        <v>0.8131041890440387</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7783687943262412</v>
+        <v>0.8176532769556024</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.8064516129032258</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6965868794326242</v>
+        <v>0.5097780126849895</v>
       </c>
       <c r="D5" t="n">
-        <v>0.685825065571901</v>
+        <v>0.4390463337831759</v>
       </c>
       <c r="E5" t="n">
-        <v>0.6965868794326242</v>
+        <v>0.5097780126849895</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.7878787878787878</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5407801418439716</v>
+        <v>0.7209302325581395</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4641025641025641</v>
+        <v>0.7171052631578947</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5407801418439717</v>
+        <v>0.7209302325581395</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.7468214581117807</v>
+        <v>0.7826872027343725</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7093971631205673</v>
+        <v>0.7524312896405919</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6780832335942872</v>
+        <v>0.736065682592314</v>
       </c>
       <c r="E7" t="n">
-        <v>0.7093971631205674</v>
+        <v>0.7524312896405919</v>
       </c>
     </row>
   </sheetData>
